--- a/pred_ohlcv/54_21/2020-01-16 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 CON ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>604585.3884000002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>666161.0334000002</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>620484.6876000002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>691572.0176000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>265135.5525000002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>321705.0475000002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>443305.2925000002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>371717.3475000001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>414269.6225000002</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>450245.8185000002</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>310705.6796000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>354259.1846000002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>283672.4696000002</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>226602.3596000002</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>190558.0796000002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>45880.34460000021</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>45880.34460000021</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>90435.07960000022</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>35868.04460000021</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>95941.84460000021</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>46881.57460000022</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-176.2353999997795</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>37369.88960000022</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-10795.10739999978</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-73208.86399999978</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-9130.143999999782</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-47677.49899999979</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>29417.21100000022</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-22146.13399999978</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>51444.27100000022</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>114021.1460000002</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>48941.19600000021</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-25021.66699999978</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-302994.1296999998</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-302994.1296999998</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-598375.1457999998</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-656446.4857999998</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-624407.1257999998</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-565257.7888999998</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-620325.4388999998</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-687908.4638999999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1574336.2084</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1573919.6964</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1613968.8964</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1531894.3655</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1595973.0855</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1595973.0855</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1558927.5755</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1515874.6855</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1395727.0855</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1474323.6405</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1593970.6255</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1525386.3705</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3621116.7163</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3563545.991299999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-3608601.3413</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-3619614.8713</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-3557538.6113</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-3556777.6763</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3522735.8563</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-3590819.4963</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3555776.4463</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3599830.566300001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3660404.981300001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-3586313.961300001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3660905.5963</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3614348.4013</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3675423.4313</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3598841.3513</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-3567302.6063</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3492210.3563</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-3492210.3563</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3808782.452</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3753214.187</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-3750092.1462</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3750092.1462</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3624437.7812</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3557443.479199999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3657065.864199999</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3600996.984199999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3602996.984199999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3552434.869199999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3474338.929199999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3527904.734199999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3495364.759199999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3569942.864199999</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3506865.374199999</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3441284.809199999</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3527348.769199999</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3577246.067199999</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-3458600.312199999</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-3528185.797199999</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3479626.142199999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-3446585.552199999</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-3534693.7922</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-3464607.692199999</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-3544205.4772</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3482629.8322</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3403532.6622</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-3442580.6322</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3440493.7542</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3369406.4242</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3312836.9292</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3353887.3592</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3466025.1192</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3508577.3942</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3508120.833199999</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3543664.498199999</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3507119.603199999</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3550673.108199999</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3480086.393199999</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3423016.283199999</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3423016.283199999</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3347423.418199999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3416508.288199999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3338912.963199999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3383467.698199999</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3438722.801999999</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3378649.001999999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3329588.731999999</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-3376646.541999999</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3433291.864499999</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-3385733.439499999</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-3385733.439499999</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3449812.1595</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-3334170.0945</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-3386550.4435</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-3312960.0385</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-3185303.2135</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-3112213.4235</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-3171285.993499999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-3146313.506199999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3192370.086199999</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3134298.746199999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3166338.106199999</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3197376.236199999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3142308.586199999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-3209891.611199999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-3158828.881199999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3052197.886199999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-3082735.401199999</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3049194.196199999</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-3083736.631199999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-3046691.121199999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-3089744.0112</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-3017655.4512</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-3066139.013199999</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2805873.197859058</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2805873.197859058</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2697740.357859058</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-2669168.92928763</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2726739.65428763</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2681684.30428763</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-2640133.25928763</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2587568.68428763</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-2649644.944287629</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-2615603.12428763</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-2718729.814287629</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-2674675.694287629</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-2614101.279287629</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-2540010.259287629</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-2661159.089287629</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2722234.119287629</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2646140.639287629</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2539509.644287629</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2606592.054287629</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2542012.719287629</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-2486444.454287629</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2546017.639287629</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-2599082.829287629</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2737753.184287629</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2673346.764287629</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-2928352.164087629</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2872283.284087629</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-2821721.169087629</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-2899817.109087629</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-2846251.304087629</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2878791.279087629</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2942369.384087629</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2941816.705087629</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-3004894.195087629</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2939313.630087629</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2991377.590087629</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2941816.705087629</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2983868.365087629</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2907274.270087629</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2976859.755087629</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-3025419.410087629</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2992378.820087629</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-3042440.320087629</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-3080487.060087629</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-3010400.960087629</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2930803.175087629</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-3471162.441287629</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-3392065.271287629</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2951929.971287629</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3009012.096287629</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2967961.666287629</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-3152610.320887629</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-3082023.605887629</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-3387718.131787629</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-3393224.896787629</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-3354677.541787629</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-3277582.83178763</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-3276581.60178763</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-3328144.94678763</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-3111362.87618763</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-3173939.75118763</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-3108859.801187629</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-3108859.801187629</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-3154916.381187629</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-3122877.02118763</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-3146706.54118763</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-3146506.54118763</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-3265152.296187629</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-3492752.299587629</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-3452703.099587629</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-3452703.099587629</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-3388624.379587629</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-3353881.944587629</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-3390927.454587629</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-3347001.737587628</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-3419090.297587628</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-3371031.257587628</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-3529726.212587629</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-3490177.627587629</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-3558761.882587628</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-3501191.157587628</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-3546246.507587628</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-3504695.462587629</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-3504695.462587629</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-3566771.722587628</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-3464646.262587628</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-3753265.995787628</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-3709211.875787628</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-3769786.290787628</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-3843877.310787628</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-3769285.675787629</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-3722728.480787629</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-3661653.450787629</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-3737746.930787629</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-3706208.185787629</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-5210558.284387629</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-5210558.284387629</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-5143475.874387628</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-5078896.539387628</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-4963755.089387628</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-5017814.378487628</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-4945225.203487628</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-4825077.603487629</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-4742081.638487629</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-4798150.518487629</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-4798150.518487629</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-4720054.578487628</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-4773620.383487628</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-4741080.408487628</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-4804658.513487629</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-4867736.003487629</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-4867736.003487629</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-4815672.043487629</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-4766111.158487629</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-4808162.818487629</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-4426509.083187629</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-4496094.56818763</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-4544654.22318763</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-4511613.63318763</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-4733184.70538763</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-4695137.96538763</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-4765224.06538763</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-4685626.28038763</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-4685626.28038763</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-4606529.11038763</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-4648277.08038763</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-4647277.08038763</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-4574989.750387629</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-4690239.24538763</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-4894072.77998763</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-4852745.60668763</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-4811572.46168763</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-4883160.40668763</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-4883160.40668763</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-4840608.13168763</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-4876151.79668763</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-4912696.69168763</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-4869143.18668763</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-4798556.47168763</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-4796433.21498763</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-4609828.47628763</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-4609828.47628763</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-4707841.341287631</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-4638756.47128763</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-4716351.796287631</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-4716351.796287631</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-4770918.831287631</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-4770918.831287631</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-4721858.561287631</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-4637054.626287632</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-4684613.051287632</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-4807263.726287631</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-4910750.289187632</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-5260624.656287632</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-5312188.001287632</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-5238597.596287631</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-6373081.141787631</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-6308001.191787631</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-6381090.981787631</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-6506039.529687631</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-8020004.277687631</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-7961932.937687631</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-10234672.51758763</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-43283455.41304688</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-43283455.41304688</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-43305718.62604688</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-43305718.62604688</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-43399981.19634688</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-43401534.23794688</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-43038301.65934687</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-43077281.65934687</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-43077281.65934687</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-43167100.66914687</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-43129593.27034687</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-43138251.54194687</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-42928500.87384687</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-42928500.87384687</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-42575647.36014687</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-42587349.66434687</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-42487349.66434687</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-40157001.83444884</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-40157001.83444884</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-40157001.83444884</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-40030382.57524884</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-40029280.68234885</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-37587125.38974885</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-38454528.86064885</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-38853073.30890281</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-38853229.30890281</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-38799729.69580282</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-38810909.69580282</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-39297302.87406046</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-39297145.87406046</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-39297303.87406046</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-39154368.45456046</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-39154525.45456046</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-39076141.35256046</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-39076141.35256046</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-39130708.38756046</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-39070478.58756046</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-39021097.54056046</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-39079000.87286046</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-39041288.75056046</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-39089163.44466046</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-39565561.24996046</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-39600228.87516046</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-39559054.90766045</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-39602107.79766046</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-39683542.51146045</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-39762139.06646045</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-39762139.06646045</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-39801687.65146045</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-39801209.25066046</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-39801209.25066046</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-39858779.97566046</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-39858622.97566046</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-39903678.32566046</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-39860913.74396046</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-39547735.28416047</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-39405619.95066047</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-39403416.75556047</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-39403416.75556047</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-40723194.88626046</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-40810277.29626045</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-40616311.49856045</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 CON ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>604585.3884000002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>666161.0334000002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>620484.6876000002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>691572.0176000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>265135.5525000002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>321705.0475000002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>443305.2925000002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>371717.3475000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>414269.6225000002</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>450245.8185000002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>310705.6796000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>354259.1846000002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>283672.4696000002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>226602.3596000002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>190558.0796000002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>45880.34460000021</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>45880.34460000021</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>90435.07960000022</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>35868.04460000021</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>95941.84460000021</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>46881.57460000022</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-176.2353999997795</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>37369.88960000022</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-10795.10739999978</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-73208.86399999978</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-9130.143999999782</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-47677.49899999979</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>29417.21100000022</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-22146.13399999978</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>51444.27100000022</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>114021.1460000002</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>48941.19600000021</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-25021.66699999978</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-302994.1296999998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-302994.1296999998</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-598375.1457999998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-656446.4857999998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-624407.1257999998</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-565257.7888999998</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-620325.4388999998</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1395727.0855</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1474323.6405</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1593970.6255</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1525386.3705</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3621116.7163</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3563545.991299999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3522735.8563</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-3590819.4963</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3614348.4013</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-3534693.7922</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3482629.8322</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3369406.4242</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3312836.9292</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3353887.3592</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3466025.1192</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3508577.3942</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3508120.833199999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3543664.498199999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3507119.603199999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3550673.108199999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3480086.393199999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3423016.283199999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3423016.283199999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3347423.418199999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3416508.288199999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3338912.963199999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3383467.698199999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3438722.801999999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3378649.001999999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3329588.731999999</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-3376646.541999999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3433291.864499999</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-3385733.439499999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-3385733.439499999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3449812.1595</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-3334170.0945</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-3386550.4435</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-3312960.0385</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-3185303.2135</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-3112213.4235</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-3171285.993499999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-3146313.506199999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3192370.086199999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3134298.746199999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3166338.106199999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3197376.236199999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3142308.586199999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-3209891.611199999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-3158828.881199999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3052197.886199999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-3082735.401199999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3049194.196199999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-3083736.631199999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-3046691.121199999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-3089744.0112</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-3017655.4512</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-3066139.013199999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2805873.197859058</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2805873.197859058</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2697740.357859058</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-2669168.92928763</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2726739.65428763</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2681684.30428763</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-2640133.25928763</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2587568.68428763</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-2649644.944287629</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-2615603.12428763</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-2718729.814287629</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-2674675.694287629</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-2614101.279287629</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-2540010.259287629</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-2661159.089287629</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2722234.119287629</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2646140.639287629</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2539509.644287629</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2606592.054287629</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2542012.719287629</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-2486444.454287629</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2546017.639287629</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-2599082.829287629</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2737753.184287629</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2673346.764287629</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-2928352.164087629</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2872283.284087629</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-2821721.169087629</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-2899817.109087629</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-2846251.304087629</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2878791.279087629</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2942369.384087629</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2941816.705087629</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-3004894.195087629</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2939313.630087629</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2991377.590087629</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2941816.705087629</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2983868.365087629</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2907274.270087629</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2976859.755087629</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-3025419.410087629</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2992378.820087629</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-3042440.320087629</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-3080487.060087629</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-3010400.960087629</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2930803.175087629</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-3471162.441287629</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-3392065.271287629</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2951929.971287629</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3009012.096287629</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2967961.666287629</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-3008511.481287629</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-3080099.426287629</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-3037547.151287629</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-3002003.486287629</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-3196163.825887629</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-3152610.320887629</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-3082023.605887629</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-3139093.715887629</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-3103049.435887629</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-3247727.170887629</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-3180144.145887629</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-3240794.653887629</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-3611797.539787629</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-3387718.131787629</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-3393224.896787629</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-3354677.541787629</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-3277582.83178763</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-3276581.60178763</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-3328144.94678763</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-3111362.87618763</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-3173939.75118763</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-3146706.54118763</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-3146506.54118763</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-3265152.296187629</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-3492752.299587629</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-3388624.379587629</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-3353881.944587629</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-3390927.454587629</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-3347001.737587628</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-3419090.297587628</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-3371031.257587628</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-3529726.212587629</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-3490177.627587629</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-3558761.882587628</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-3501191.157587628</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-3546246.507587628</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-3504695.462587629</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-3504695.462587629</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-3566771.722587628</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-3464646.262587628</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-3753265.995787628</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-3709211.875787628</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-3769786.290787628</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-3737746.930787629</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-3706208.185787629</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-5210558.284387629</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-5210558.284387629</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-5143475.874387628</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-4798150.518487629</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-4798150.518487629</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-4720054.578487628</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-4773620.383487628</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-4741080.408487628</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-4804658.513487629</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-4867736.003487629</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-4867736.003487629</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-4815672.043487629</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-4766111.158487629</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-4808162.818487629</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-4426509.083187629</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-4496094.56818763</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-4544654.22318763</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-4511613.63318763</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-4733184.70538763</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-4695137.96538763</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-4765224.06538763</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-4685626.28038763</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-4685626.28038763</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-4606529.11038763</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-4648277.08038763</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-4647277.08038763</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-4574989.750387629</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-4690239.24538763</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-4894072.77998763</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-4852745.60668763</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-4811572.46168763</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-4883160.40668763</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-4883160.40668763</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-4840608.13168763</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-4876151.79668763</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-4912696.69168763</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-4869143.18668763</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-4798556.47168763</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-4796433.21498763</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-4609828.47628763</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-4609828.47628763</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-4707841.341287631</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-4638756.47128763</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-4716351.796287631</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-4716351.796287631</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-4770918.831287631</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-4770918.831287631</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-4721858.561287631</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-4637054.626287632</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-4684613.051287632</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-4807263.726287631</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-4910750.289187632</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-5260624.656287632</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-5312188.001287632</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-5238597.596287631</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-6373081.141787631</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-6308001.191787631</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-6381090.981787631</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-6506039.529687631</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-7961932.937687631</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-43283455.41304688</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-43283455.41304688</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-43305718.62604688</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-43305718.62604688</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-43399981.19634688</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-43401534.23794688</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-43038301.65934687</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-43077281.65934687</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-43077281.65934687</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-43138251.54194687</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-42575647.36014687</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-42587349.66434687</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-42487349.66434687</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-40157001.83444884</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-40157001.83444884</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-40157001.83444884</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-40030382.57524884</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-40029280.68234885</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-37587125.38974885</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-38454528.86064885</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-38853073.30890281</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-38853229.30890281</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-38799729.69580282</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-38810909.69580282</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-39297302.87406046</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-39297145.87406046</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-39297303.87406046</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-39154368.45456046</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-39154525.45456046</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-39076141.35256046</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-39076141.35256046</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-39130708.38756046</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-39070478.58756046</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-39021097.54056046</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-39079000.87286046</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-39041288.75056046</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-39089163.44466046</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-39565561.24996046</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-39600228.87516046</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-39559054.90766045</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-39602107.79766046</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-39683542.51146045</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-39762139.06646045</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-39762139.06646045</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-39801687.65146045</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-39801209.25066046</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-39801209.25066046</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-39858779.97566046</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-39858622.97566046</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-39903678.32566046</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-39860913.74396046</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-39547735.28416047</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-39405619.95066047</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-39403416.75556047</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-39403416.75556047</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-40723194.88626046</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-40810277.29626045</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-40616311.49856045</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
